--- a/Labs/SQL_Server/Normalization/Normaized_solution.xlsx
+++ b/Labs/SQL_Server/Normalization/Normaized_solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Azure\Training\Capgemini\Assignments\Azure_Big_Data_Training_dec_feb\Labs\SQL_Server\Normalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED05FBE2-BD0F-4F21-AEAB-9E87F38470C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB17CBD-5EF7-41A8-878C-875511410189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{98866DC7-65CE-44AF-8B75-7FCC32DA9B06}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="47">
   <si>
     <t>OrderID</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Age column is removed since it imposes transitive dependency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrderID </t>
   </si>
 </sst>
 </file>
@@ -223,13 +226,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,7 +1299,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1326,9 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>41</v>
@@ -1338,6 +1342,9 @@
       <c r="B3" s="3">
         <v>42371</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -1358,7 +1365,10 @@
       <c r="B4" s="3">
         <v>42371</v>
       </c>
-      <c r="E4" s="5">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
@@ -1378,7 +1388,10 @@
       <c r="B5" s="3">
         <v>42372</v>
       </c>
-      <c r="E5" s="5">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
@@ -1424,7 +1437,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1446,6 +1459,9 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1460,6 +1476,9 @@
       <c r="F12" t="s">
         <v>33</v>
       </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1474,6 +1493,9 @@
       <c r="F13" t="s">
         <v>32</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1488,6 +1510,9 @@
       <c r="F14" t="s">
         <v>34</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1502,6 +1527,9 @@
       <c r="F15" t="s">
         <v>35</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E16">
@@ -1509,6 +1537,9 @@
       </c>
       <c r="F16" t="s">
         <v>34</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
